--- a/data/trans_bre/P37_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +672,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>10,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,69%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,94</t>
+          <t>-4,39; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 5,97</t>
+          <t>-4,61; 6,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,38</t>
+          <t>-4,46; 7,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,56</t>
+          <t>-1,33; 9,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 23,81</t>
+          <t>-5,37; 4,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 17,41</t>
+          <t>-9,33; 4,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 20,77</t>
+          <t>-10,86; 20,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 25,17</t>
+          <t>-11,19; 19,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; 20,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 24,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,08; 11,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-19,72; 12,88</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,28</t>
+          <t>-5,58; 8,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 14,66</t>
+          <t>2,95; 14,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 11,88</t>
+          <t>-0,87; 11,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 13,84</t>
+          <t>-7,93; 13,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 30,79</t>
+          <t>-2,96; 14,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 56,23</t>
+          <t>0,74; 15,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 38,63</t>
+          <t>-14,33; 26,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 43,49</t>
+          <t>9,09; 55,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 37,53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 42,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 51,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 47,0</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,27%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 18,18</t>
+          <t>-13,24; 14,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 15,87</t>
+          <t>-6,49; 18,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 20,75</t>
+          <t>1,83; 23,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 87,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 58,16</t>
+          <t>-20,82; 10,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 102,22</t>
+          <t>-32,5; 58,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-16,05; 67,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 116,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,32; 40,92</t>
         </is>
       </c>
     </row>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +1092,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>10,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,68</t>
+          <t>-2,52; 5,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,21</t>
+          <t>0,78; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 8,57</t>
+          <t>0,26; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 8,64</t>
+          <t>-0,51; 8,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 20,78</t>
+          <t>-3,74; 5,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 25,67</t>
+          <t>-2,3; 7,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 26,11</t>
+          <t>-6,45; 17,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 23,01</t>
+          <t>2,04; 25,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 25,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 22,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 13,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 20,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-4,69%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.924442951751526</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.206713781169244</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.50387245671626</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.2419164913651</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3849379350461368</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-2.418796278879964</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0508130405606507</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.03186216182152789</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.03788863901867719</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1036414857614563</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.008479157041425761</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.0571915944275106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 7,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,61; 6,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 7,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 9,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 4,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; 4,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 20,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 19,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 20,46</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 24,71</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-11,08; 11,28</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-19,72; 12,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.325293617748095</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.219142625659194</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.677425242494619</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.32545676271274</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.298131029309348</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-9.650471669218872</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1050071708355193</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1011067939553474</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.11092466554693</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.03076270270524605</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1112151080348011</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2048784895452538</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.921772684492247</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.269371693420859</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.196644117800073</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.579942931855008</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.824301706461897</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.235963008239217</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.226649063130408</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.212076525334844</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.19718775022694</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2470906712200066</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1142465936877039</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.115673942351427</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,56%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,04%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>22,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 8,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 14,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 11,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 13,63</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 14,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 15,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,33; 26,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 55,58</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 37,53</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,7; 42,03</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 51,3</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 47,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.7006327372511889</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.226254607600232</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.667029192692496</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.940210377076808</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.51847065641986</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.910952244957425</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01922670945279581</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3110601326032787</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1336325495947071</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.104377116644257</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1674573467157167</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2151248942719865</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>47,19%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-7,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.220196644557872</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.308517420098294</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.485740686310425</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.931361486416844</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.126788499681417</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.3354856683316841</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1545615360305984</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.09791150774906249</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.0391816560453512</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1770082160753239</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.09003063928259609</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.007070834851056492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,24; 14,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 18,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 23,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,82; 10,91</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-32,5; 58,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 67,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 116,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-44,32; 40,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.567275651745424</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.10831229282862</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.03558908428253</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.63488991804826</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.53399547126382</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.97181535617211</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2663661273653506</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5858821897207801</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3550899412572034</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.4203257811906971</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.5080885825505248</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4600293505892625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,25%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.290141924344148</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.997209307297668</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.66384935419647</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-3.303609273284258</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1421614913713355</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1702012431815288</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4278007808721926</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.09076738757462544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 5,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 8,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 8,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 8,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 5,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 7,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 17,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 25,79</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 25,39</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 22,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 13,36</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 20,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.15120021144568</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.128996657977004</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.7407029125986033</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-21.6016219492986</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2909681524475789</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1499100766293662</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.02212843116228227</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.4556049797887722</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.34537876355633</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.23835283892842</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.28995390493454</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>9.955135396022698</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7770168380272572</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.666457582360408</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.108251260186152</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.3786926654901963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.786063778608987</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.986899953236263</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.074905440096765</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.250427642113152</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.16255245562773</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.602214446892869</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04908295896550027</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1455747039471792</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.112398820976687</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1058207311228317</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.02741757001377567</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.04070950571351604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.38741834932732</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.9390590027435766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.09924416414658288</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5117527818939599</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.715805934607531</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.806361683676575</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.0599120123453337</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02506545930371473</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.0033219800664389</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.01455717511364535</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.08336504118047054</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.06745457984690707</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.422928876560328</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.597554728252431</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.913172752516958</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.638956330894407</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.339549700529476</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6.829720898754566</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1888662977400566</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2639264913421634</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2318537779275011</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2297012334501796</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.133909782578068</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1938966013512531</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
